--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Mdk-Sdc1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Mdk-Sdc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.41600356826184</v>
+        <v>2.512729</v>
       </c>
       <c r="H2">
-        <v>1.41600356826184</v>
+        <v>7.538187</v>
       </c>
       <c r="I2">
-        <v>0.01274337653726104</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="J2">
-        <v>0.01274337653726104</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.670085303259497</v>
+        <v>0.9159313333333333</v>
       </c>
       <c r="N2">
-        <v>0.670085303259497</v>
+        <v>2.747794</v>
       </c>
       <c r="O2">
-        <v>0.02849429230548853</v>
+        <v>0.03641350786393945</v>
       </c>
       <c r="P2">
-        <v>0.02849429230548853</v>
+        <v>0.03641350786393944</v>
       </c>
       <c r="Q2">
-        <v>0.9488431804552648</v>
+        <v>2.301487223275333</v>
       </c>
       <c r="R2">
-        <v>0.9488431804552648</v>
+        <v>20.713385009478</v>
       </c>
       <c r="S2">
-        <v>0.0003631134960116204</v>
+        <v>0.0007977203027039797</v>
       </c>
       <c r="T2">
-        <v>0.0003631134960116204</v>
+        <v>0.0007977203027039795</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.41600356826184</v>
+        <v>2.512729</v>
       </c>
       <c r="H3">
-        <v>1.41600356826184</v>
+        <v>7.538187</v>
       </c>
       <c r="I3">
-        <v>0.01274337653726104</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="J3">
-        <v>0.01274337653726104</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.416639528447</v>
+        <v>10.56834633333333</v>
       </c>
       <c r="N3">
-        <v>10.416639528447</v>
+        <v>31.705039</v>
       </c>
       <c r="O3">
-        <v>0.4429507260055973</v>
+        <v>0.4201521973455823</v>
       </c>
       <c r="P3">
-        <v>0.4429507260055973</v>
+        <v>0.4201521973455822</v>
       </c>
       <c r="Q3">
-        <v>14.74999874157828</v>
+        <v>26.55539031381033</v>
       </c>
       <c r="R3">
-        <v>14.74999874157828</v>
+        <v>238.998512824293</v>
       </c>
       <c r="S3">
-        <v>0.005644687888942472</v>
+        <v>0.009204384793154611</v>
       </c>
       <c r="T3">
-        <v>0.005644687888942472</v>
+        <v>0.009204384793154609</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.41600356826184</v>
+        <v>2.512729</v>
       </c>
       <c r="H4">
-        <v>1.41600356826184</v>
+        <v>7.538187</v>
       </c>
       <c r="I4">
-        <v>0.01274337653726104</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="J4">
-        <v>0.01274337653726104</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>12.4297498389217</v>
+        <v>1.220967333333333</v>
       </c>
       <c r="N4">
-        <v>12.4297498389217</v>
+        <v>3.662902</v>
       </c>
       <c r="O4">
-        <v>0.5285549816889141</v>
+        <v>0.04854043308262539</v>
       </c>
       <c r="P4">
-        <v>0.5285549816889141</v>
+        <v>0.04854043308262537</v>
       </c>
       <c r="Q4">
-        <v>17.60057012451515</v>
+        <v>3.067960026519333</v>
       </c>
       <c r="R4">
-        <v>17.60057012451515</v>
+        <v>27.611640238674</v>
       </c>
       <c r="S4">
-        <v>0.006735575152306948</v>
+        <v>0.001063388045907012</v>
       </c>
       <c r="T4">
-        <v>0.006735575152306948</v>
+        <v>0.001063388045907012</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>92.59680555783819</v>
+        <v>2.512729</v>
       </c>
       <c r="H5">
-        <v>92.59680555783819</v>
+        <v>7.538187</v>
       </c>
       <c r="I5">
-        <v>0.8333283798285455</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="J5">
-        <v>0.8333283798285455</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.670085303259497</v>
+        <v>12.44836933333333</v>
       </c>
       <c r="N5">
-        <v>0.670085303259497</v>
+        <v>37.345108</v>
       </c>
       <c r="O5">
-        <v>0.02849429230548853</v>
+        <v>0.494893861707853</v>
       </c>
       <c r="P5">
-        <v>0.02849429230548853</v>
+        <v>0.4948938617078529</v>
       </c>
       <c r="Q5">
-        <v>62.04775853308468</v>
+        <v>31.27937862657733</v>
       </c>
       <c r="R5">
-        <v>62.04775853308468</v>
+        <v>281.514407639196</v>
       </c>
       <c r="S5">
-        <v>0.02374510244129375</v>
+        <v>0.01084177011023127</v>
       </c>
       <c r="T5">
-        <v>0.02374510244129375</v>
+        <v>0.01084177011023127</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>92.59680555783819</v>
+        <v>92.89399466666667</v>
       </c>
       <c r="H6">
-        <v>92.59680555783819</v>
+        <v>278.681984</v>
       </c>
       <c r="I6">
-        <v>0.8333283798285455</v>
+        <v>0.8098976036382196</v>
       </c>
       <c r="J6">
-        <v>0.8333283798285455</v>
+        <v>0.8098976036382197</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.416639528447</v>
+        <v>0.9159313333333333</v>
       </c>
       <c r="N6">
-        <v>10.416639528447</v>
+        <v>2.747794</v>
       </c>
       <c r="O6">
-        <v>0.4429507260055973</v>
+        <v>0.03641350786393945</v>
       </c>
       <c r="P6">
-        <v>0.4429507260055973</v>
+        <v>0.03641350786393944</v>
       </c>
       <c r="Q6">
-        <v>964.5475449816983</v>
+        <v>85.08452039369956</v>
       </c>
       <c r="R6">
-        <v>964.5475449816983</v>
+        <v>765.760683543296</v>
       </c>
       <c r="S6">
-        <v>0.3691234108461223</v>
+        <v>0.02949121275906603</v>
       </c>
       <c r="T6">
-        <v>0.3691234108461223</v>
+        <v>0.02949121275906602</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>92.59680555783819</v>
+        <v>92.89399466666667</v>
       </c>
       <c r="H7">
-        <v>92.59680555783819</v>
+        <v>278.681984</v>
       </c>
       <c r="I7">
-        <v>0.8333283798285455</v>
+        <v>0.8098976036382196</v>
       </c>
       <c r="J7">
-        <v>0.8333283798285455</v>
+        <v>0.8098976036382197</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.4297498389217</v>
+        <v>10.56834633333333</v>
       </c>
       <c r="N7">
-        <v>12.4297498389217</v>
+        <v>31.705039</v>
       </c>
       <c r="O7">
-        <v>0.5285549816889141</v>
+        <v>0.4201521973455823</v>
       </c>
       <c r="P7">
-        <v>0.5285549816889141</v>
+        <v>0.4201521973455822</v>
       </c>
       <c r="Q7">
-        <v>1150.955128967203</v>
+        <v>981.7359079241529</v>
       </c>
       <c r="R7">
-        <v>1150.955128967203</v>
+        <v>8835.623171317377</v>
       </c>
       <c r="S7">
-        <v>0.4404598665411293</v>
+        <v>0.3402802577935194</v>
       </c>
       <c r="T7">
-        <v>0.4404598665411293</v>
+        <v>0.3402802577935194</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.30794607477179</v>
+        <v>92.89399466666667</v>
       </c>
       <c r="H8">
-        <v>1.30794607477179</v>
+        <v>278.681984</v>
       </c>
       <c r="I8">
-        <v>0.01177090912398563</v>
+        <v>0.8098976036382196</v>
       </c>
       <c r="J8">
-        <v>0.01177090912398563</v>
+        <v>0.8098976036382197</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.670085303259497</v>
+        <v>1.220967333333333</v>
       </c>
       <c r="N8">
-        <v>0.670085303259497</v>
+        <v>3.662902</v>
       </c>
       <c r="O8">
-        <v>0.02849429230548853</v>
+        <v>0.04854043308262539</v>
       </c>
       <c r="P8">
-        <v>0.02849429230548853</v>
+        <v>0.04854043308262537</v>
       </c>
       <c r="Q8">
-        <v>0.8764354421605236</v>
+        <v>113.4205329508409</v>
       </c>
       <c r="R8">
-        <v>0.8764354421605236</v>
+        <v>1020.784796557568</v>
       </c>
       <c r="S8">
-        <v>0.0003354037252801886</v>
+        <v>0.03931278043317966</v>
       </c>
       <c r="T8">
-        <v>0.0003354037252801886</v>
+        <v>0.03931278043317965</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.30794607477179</v>
+        <v>92.89399466666667</v>
       </c>
       <c r="H9">
-        <v>1.30794607477179</v>
+        <v>278.681984</v>
       </c>
       <c r="I9">
-        <v>0.01177090912398563</v>
+        <v>0.8098976036382196</v>
       </c>
       <c r="J9">
-        <v>0.01177090912398563</v>
+        <v>0.8098976036382197</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.416639528447</v>
+        <v>12.44836933333333</v>
       </c>
       <c r="N9">
-        <v>10.416639528447</v>
+        <v>37.345108</v>
       </c>
       <c r="O9">
-        <v>0.4429507260055973</v>
+        <v>0.494893861707853</v>
       </c>
       <c r="P9">
-        <v>0.4429507260055973</v>
+        <v>0.4948938617078529</v>
       </c>
       <c r="Q9">
-        <v>13.62440278354492</v>
+        <v>1156.378754459364</v>
       </c>
       <c r="R9">
-        <v>13.62440278354492</v>
+        <v>10407.40879013427</v>
       </c>
       <c r="S9">
-        <v>0.005213932742215346</v>
+        <v>0.4008133526524546</v>
       </c>
       <c r="T9">
-        <v>0.005213932742215346</v>
+        <v>0.4008133526524545</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.30794607477179</v>
+        <v>1.610639333333333</v>
       </c>
       <c r="H10">
-        <v>1.30794607477179</v>
+        <v>4.831918</v>
       </c>
       <c r="I10">
-        <v>0.01177090912398563</v>
+        <v>0.0140423817607685</v>
       </c>
       <c r="J10">
-        <v>0.01177090912398563</v>
+        <v>0.0140423817607685</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.4297498389217</v>
+        <v>0.9159313333333333</v>
       </c>
       <c r="N10">
-        <v>12.4297498389217</v>
+        <v>2.747794</v>
       </c>
       <c r="O10">
-        <v>0.5285549816889141</v>
+        <v>0.03641350786393945</v>
       </c>
       <c r="P10">
-        <v>0.5285549816889141</v>
+        <v>0.03641350786393944</v>
       </c>
       <c r="Q10">
-        <v>16.25744251221293</v>
+        <v>1.475235032099111</v>
       </c>
       <c r="R10">
-        <v>16.25744251221293</v>
+        <v>13.277115288892</v>
       </c>
       <c r="S10">
-        <v>0.006221572656490099</v>
+        <v>0.0005113323786741837</v>
       </c>
       <c r="T10">
-        <v>0.006221572656490099</v>
+        <v>0.0005113323786741836</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>15.7960719698165</v>
+        <v>1.610639333333333</v>
       </c>
       <c r="H11">
-        <v>15.7960719698165</v>
+        <v>4.831918</v>
       </c>
       <c r="I11">
-        <v>0.1421573345102079</v>
+        <v>0.0140423817607685</v>
       </c>
       <c r="J11">
-        <v>0.1421573345102079</v>
+        <v>0.0140423817607685</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.670085303259497</v>
+        <v>10.56834633333333</v>
       </c>
       <c r="N11">
-        <v>0.670085303259497</v>
+        <v>31.705039</v>
       </c>
       <c r="O11">
-        <v>0.02849429230548853</v>
+        <v>0.4201521973455823</v>
       </c>
       <c r="P11">
-        <v>0.02849429230548853</v>
+        <v>0.4201521973455822</v>
       </c>
       <c r="Q11">
-        <v>10.58471567620333</v>
+        <v>17.02179429275578</v>
       </c>
       <c r="R11">
-        <v>10.58471567620333</v>
+        <v>153.196148634802</v>
       </c>
       <c r="S11">
-        <v>0.004050672642902977</v>
+        <v>0.005899937552752412</v>
       </c>
       <c r="T11">
-        <v>0.004050672642902977</v>
+        <v>0.005899937552752412</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>15.7960719698165</v>
+        <v>1.610639333333333</v>
       </c>
       <c r="H12">
-        <v>15.7960719698165</v>
+        <v>4.831918</v>
       </c>
       <c r="I12">
-        <v>0.1421573345102079</v>
+        <v>0.0140423817607685</v>
       </c>
       <c r="J12">
-        <v>0.1421573345102079</v>
+        <v>0.0140423817607685</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>10.416639528447</v>
+        <v>1.220967333333333</v>
       </c>
       <c r="N12">
-        <v>10.416639528447</v>
+        <v>3.662902</v>
       </c>
       <c r="O12">
-        <v>0.4429507260055973</v>
+        <v>0.04854043308262539</v>
       </c>
       <c r="P12">
-        <v>0.4429507260055973</v>
+        <v>0.04854043308262537</v>
       </c>
       <c r="Q12">
-        <v>164.5419876749842</v>
+        <v>1.966538011781778</v>
       </c>
       <c r="R12">
-        <v>164.5419876749842</v>
+        <v>17.698842106036</v>
       </c>
       <c r="S12">
-        <v>0.06296869452831715</v>
+        <v>0.0006816232921792626</v>
       </c>
       <c r="T12">
-        <v>0.06296869452831715</v>
+        <v>0.0006816232921792625</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>15.7960719698165</v>
+        <v>1.610639333333333</v>
       </c>
       <c r="H13">
-        <v>15.7960719698165</v>
+        <v>4.831918</v>
       </c>
       <c r="I13">
-        <v>0.1421573345102079</v>
+        <v>0.0140423817607685</v>
       </c>
       <c r="J13">
-        <v>0.1421573345102079</v>
+        <v>0.0140423817607685</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.4297498389217</v>
+        <v>12.44836933333333</v>
       </c>
       <c r="N13">
-        <v>12.4297498389217</v>
+        <v>37.345108</v>
       </c>
       <c r="O13">
-        <v>0.5285549816889141</v>
+        <v>0.494893861707853</v>
       </c>
       <c r="P13">
-        <v>0.5285549816889141</v>
+        <v>0.4948938617078529</v>
       </c>
       <c r="Q13">
-        <v>196.3412230224222</v>
+        <v>20.04983328412711</v>
       </c>
       <c r="R13">
-        <v>196.3412230224222</v>
+        <v>180.448499557144</v>
       </c>
       <c r="S13">
-        <v>0.0751379673389878</v>
+        <v>0.006949488537162644</v>
       </c>
       <c r="T13">
-        <v>0.0751379673389878</v>
+        <v>0.006949488537162643</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>17.68108066666667</v>
+      </c>
+      <c r="H14">
+        <v>53.04324200000001</v>
+      </c>
+      <c r="I14">
+        <v>0.154152751349015</v>
+      </c>
+      <c r="J14">
+        <v>0.154152751349015</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.9159313333333333</v>
+      </c>
+      <c r="N14">
+        <v>2.747794</v>
+      </c>
+      <c r="O14">
+        <v>0.03641350786393945</v>
+      </c>
+      <c r="P14">
+        <v>0.03641350786393944</v>
+      </c>
+      <c r="Q14">
+        <v>16.19465578979423</v>
+      </c>
+      <c r="R14">
+        <v>145.751902108148</v>
+      </c>
+      <c r="S14">
+        <v>0.005613242423495261</v>
+      </c>
+      <c r="T14">
+        <v>0.005613242423495258</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>17.68108066666667</v>
+      </c>
+      <c r="H15">
+        <v>53.04324200000001</v>
+      </c>
+      <c r="I15">
+        <v>0.154152751349015</v>
+      </c>
+      <c r="J15">
+        <v>0.154152751349015</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>10.56834633333333</v>
+      </c>
+      <c r="N15">
+        <v>31.705039</v>
+      </c>
+      <c r="O15">
+        <v>0.4201521973455823</v>
+      </c>
+      <c r="P15">
+        <v>0.4201521973455822</v>
+      </c>
+      <c r="Q15">
+        <v>186.8597840329376</v>
+      </c>
+      <c r="R15">
+        <v>1681.738056296438</v>
+      </c>
+      <c r="S15">
+        <v>0.06476761720615583</v>
+      </c>
+      <c r="T15">
+        <v>0.0647676172061558</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>17.68108066666667</v>
+      </c>
+      <c r="H16">
+        <v>53.04324200000001</v>
+      </c>
+      <c r="I16">
+        <v>0.154152751349015</v>
+      </c>
+      <c r="J16">
+        <v>0.154152751349015</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>1.220967333333333</v>
+      </c>
+      <c r="N16">
+        <v>3.662902</v>
+      </c>
+      <c r="O16">
+        <v>0.04854043308262539</v>
+      </c>
+      <c r="P16">
+        <v>0.04854043308262537</v>
+      </c>
+      <c r="Q16">
+        <v>21.58802191203156</v>
+      </c>
+      <c r="R16">
+        <v>194.292197208284</v>
+      </c>
+      <c r="S16">
+        <v>0.007482641311359452</v>
+      </c>
+      <c r="T16">
+        <v>0.00748264131135945</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>17.68108066666667</v>
+      </c>
+      <c r="H17">
+        <v>53.04324200000001</v>
+      </c>
+      <c r="I17">
+        <v>0.154152751349015</v>
+      </c>
+      <c r="J17">
+        <v>0.154152751349015</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>12.44836933333333</v>
+      </c>
+      <c r="N17">
+        <v>37.345108</v>
+      </c>
+      <c r="O17">
+        <v>0.494893861707853</v>
+      </c>
+      <c r="P17">
+        <v>0.4948938617078529</v>
+      </c>
+      <c r="Q17">
+        <v>220.1006223511263</v>
+      </c>
+      <c r="R17">
+        <v>1980.905601160136</v>
+      </c>
+      <c r="S17">
+        <v>0.07628925040800447</v>
+      </c>
+      <c r="T17">
+        <v>0.07628925040800445</v>
       </c>
     </row>
   </sheetData>
